--- a/6.Gerenciamento de Projeto/CONIM - Planejamento e Controle do Projeto.xlsx
+++ b/6.Gerenciamento de Projeto/CONIM - Planejamento e Controle do Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosag\Documents\CONIM_ContractImovel\6.Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F856011-C60A-470F-817C-C4C2A1EEEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FFE0CB-1F18-4E67-8815-B752DA02D14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="254">
   <si>
     <t>Equipe</t>
   </si>
@@ -1558,13 +1558,7 @@
     <t>Em execução</t>
   </si>
   <si>
-    <t>Planejado</t>
-  </si>
-  <si>
     <t>Material de Suporte e Treinamento</t>
-  </si>
-  <si>
-    <t>5.00</t>
   </si>
   <si>
     <t>APF (Método de estimativa de tamanho de sistema)</t>
@@ -2809,114 +2803,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="26" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3029,6 +2915,114 @@
     <xf numFmtId="164" fontId="32" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4667,11 +4661,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4697,11 +4691,11 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -11682,22 +11676,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -11714,22 +11708,22 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -11765,13 +11759,13 @@
       <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="112"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="153"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -11788,11 +11782,11 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
@@ -12116,11 +12110,11 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>47</v>
@@ -12499,11 +12493,11 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
       <c r="D21" s="8">
         <f>SUM(D12:D20)</f>
         <v>66</v>
@@ -13209,9 +13203,9 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="115"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="112"/>
+      <c r="A41" s="156"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="153"/>
       <c r="D41" s="8">
         <f>SUM(D32:D40)</f>
         <v>65</v>
@@ -19671,19 +19665,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
@@ -20632,10 +20626,10 @@
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="112"/>
+      <c r="E33" s="153"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
@@ -20879,19 +20873,19 @@
       <c r="Z40" s="30"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="125" t="s">
+      <c r="A41" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="112"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="153"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
@@ -20909,19 +20903,19 @@
       <c r="Z41" s="29"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="112"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="153"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -20939,19 +20933,19 @@
       <c r="Z42" s="29"/>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="112"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="153"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
@@ -20969,19 +20963,19 @@
       <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="128" t="s">
+      <c r="A44" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="112"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="153"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
@@ -21027,19 +21021,19 @@
       <c r="Z45" s="30"/>
     </row>
     <row r="46" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
       <c r="N46" s="30"/>
@@ -21061,17 +21055,17 @@
         <v>114</v>
       </c>
       <c r="B47" s="37"/>
-      <c r="C47" s="134" t="s">
+      <c r="C47" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="112"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="153"/>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
@@ -21089,31 +21083,31 @@
       <c r="Z47" s="38"/>
     </row>
     <row r="48" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="135"/>
-      <c r="B48" s="130" t="s">
+      <c r="A48" s="166"/>
+      <c r="B48" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="130" t="s">
+      <c r="C48" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="130" t="s">
+      <c r="D48" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="130" t="s">
+      <c r="E48" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="130" t="s">
+      <c r="F48" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="130" t="s">
+      <c r="G48" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="132" t="s">
+      <c r="H48" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="111"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
       <c r="L48" s="39"/>
       <c r="M48" s="39"/>
       <c r="N48" s="39"/>
@@ -21131,17 +21125,17 @@
       <c r="Z48" s="39"/>
     </row>
     <row r="49" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="132" t="s">
+      <c r="A49" s="167"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="I49" s="112"/>
+      <c r="I49" s="153"/>
       <c r="J49" s="40" t="s">
         <v>122</v>
       </c>
@@ -21187,10 +21181,10 @@
       <c r="G50" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="133" t="s">
+      <c r="H50" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="I50" s="112"/>
+      <c r="I50" s="153"/>
       <c r="J50" s="46" t="s">
         <v>126</v>
       </c>
@@ -21490,8 +21484,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="44"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="112"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="153"/>
       <c r="J59" s="46"/>
       <c r="K59" s="46"/>
       <c r="L59" s="39"/>
@@ -21521,8 +21515,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="44"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="112"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="153"/>
       <c r="J60" s="46"/>
       <c r="K60" s="46"/>
       <c r="L60" s="39"/>
@@ -27883,6 +27877,16 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="H60:I60"/>
@@ -27893,16 +27897,6 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -27950,11 +27944,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -28008,11 +28002,11 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -28378,11 +28372,11 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -35062,8 +35056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35078,19 +35072,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -35108,23 +35102,23 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
       <c r="E2" s="67">
         <f>Planejamento!$B$10</f>
         <v>386.4</v>
       </c>
       <c r="F2" s="68"/>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="112"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="153"/>
       <c r="K2" s="67"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -35145,17 +35139,17 @@
     <row r="3" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69"/>
       <c r="B3" s="70"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="181" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
       <c r="J3" s="72"/>
       <c r="K3" s="73"/>
       <c r="L3" s="5"/>
@@ -35175,37 +35169,37 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="152" t="s">
+      <c r="H4" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="152" t="s">
+      <c r="I4" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="153" t="s">
+      <c r="J4" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="152" t="s">
+      <c r="K4" s="110" t="s">
         <v>168</v>
       </c>
       <c r="L4" s="5"/>
@@ -35225,37 +35219,37 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159">
+      <c r="A5" s="117">
         <v>1</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="161">
+      <c r="C5" s="119">
         <v>45896</v>
       </c>
-      <c r="D5" s="161">
+      <c r="D5" s="119">
         <v>45905</v>
       </c>
-      <c r="E5" s="162">
+      <c r="E5" s="120">
         <v>27</v>
       </c>
-      <c r="F5" s="163" t="s">
+      <c r="F5" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="161">
+      <c r="G5" s="119">
         <v>45896</v>
       </c>
-      <c r="H5" s="161">
+      <c r="H5" s="119">
         <v>45904</v>
       </c>
-      <c r="I5" s="162">
+      <c r="I5" s="120">
         <v>30</v>
       </c>
-      <c r="J5" s="164">
+      <c r="J5" s="122">
         <v>3</v>
       </c>
-      <c r="K5" s="165" t="s">
+      <c r="K5" s="123" t="s">
         <v>171</v>
       </c>
       <c r="L5" s="5"/>
@@ -35275,38 +35269,38 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="159">
+      <c r="A6" s="117">
         <v>2</v>
       </c>
-      <c r="B6" s="166" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="167">
+      <c r="B6" s="124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="125">
         <v>45910</v>
       </c>
-      <c r="D6" s="167">
+      <c r="D6" s="125">
         <v>45918</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="126">
         <v>27</v>
       </c>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="167">
+      <c r="G6" s="125">
         <v>45912</v>
       </c>
-      <c r="H6" s="167">
+      <c r="H6" s="125">
         <v>45926</v>
       </c>
-      <c r="I6" s="168">
+      <c r="I6" s="126">
         <v>28</v>
       </c>
-      <c r="J6" s="170">
+      <c r="J6" s="128">
         <v>1</v>
       </c>
-      <c r="K6" s="165" t="s">
-        <v>254</v>
+      <c r="K6" s="123" t="s">
+        <v>252</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -35325,38 +35319,38 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="159">
+      <c r="A7" s="117">
         <v>3</v>
       </c>
-      <c r="B7" s="171" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="172" t="s">
+      <c r="B7" s="129" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="173">
+      <c r="D7" s="131">
         <v>45946</v>
       </c>
-      <c r="E7" s="172">
+      <c r="E7" s="130">
         <v>30</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="132" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="175">
+      <c r="G7" s="133">
         <v>45930</v>
       </c>
-      <c r="H7" s="175">
+      <c r="H7" s="133">
         <v>45951</v>
       </c>
-      <c r="I7" s="176">
+      <c r="I7" s="134">
         <v>35</v>
       </c>
-      <c r="J7" s="170">
+      <c r="J7" s="128">
         <v>-5</v>
       </c>
-      <c r="K7" s="165" t="s">
-        <v>255</v>
+      <c r="K7" s="123" t="s">
+        <v>253</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -35375,38 +35369,38 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="159">
+      <c r="A8" s="117">
         <v>4</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="129" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="131">
+        <v>45926</v>
+      </c>
+      <c r="D8" s="131">
+        <v>45946</v>
+      </c>
+      <c r="E8" s="130">
+        <v>30</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="133">
+        <v>45930</v>
+      </c>
+      <c r="H8" s="135">
+        <v>45951</v>
+      </c>
+      <c r="I8" s="136">
+        <v>33</v>
+      </c>
+      <c r="J8" s="137">
+        <v>-3</v>
+      </c>
+      <c r="K8" s="138" t="s">
         <v>253</v>
-      </c>
-      <c r="C8" s="173">
-        <v>45926</v>
-      </c>
-      <c r="D8" s="173">
-        <v>45946</v>
-      </c>
-      <c r="E8" s="172">
-        <v>30</v>
-      </c>
-      <c r="F8" s="174" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="175">
-        <v>45930</v>
-      </c>
-      <c r="H8" s="177">
-        <v>45951</v>
-      </c>
-      <c r="I8" s="178">
-        <v>33</v>
-      </c>
-      <c r="J8" s="179">
-        <v>-3</v>
-      </c>
-      <c r="K8" s="180" t="s">
-        <v>255</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -35425,37 +35419,31 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="159">
+      <c r="A9" s="117">
         <v>5</v>
       </c>
-      <c r="B9" s="171" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="173">
+      <c r="B9" s="129" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="131">
         <v>45972</v>
       </c>
-      <c r="D9" s="173">
+      <c r="D9" s="131">
         <v>45981</v>
       </c>
-      <c r="E9" s="172">
+      <c r="E9" s="130">
         <v>5</v>
       </c>
-      <c r="F9" s="174" t="s">
+      <c r="F9" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="177">
+      <c r="G9" s="135">
         <v>45946</v>
       </c>
-      <c r="H9" s="177">
-        <v>45968</v>
-      </c>
-      <c r="I9" s="178">
-        <v>37</v>
-      </c>
-      <c r="J9" s="179">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="181"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="139"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -35473,29 +35461,19 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="159">
+      <c r="A10" s="117">
         <v>6</v>
       </c>
-      <c r="B10" s="182" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="183">
-        <v>45972</v>
-      </c>
-      <c r="D10" s="183">
-        <v>45979</v>
-      </c>
-      <c r="E10" s="184" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="185" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="181"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="139"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -35513,19 +35491,19 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="159">
+      <c r="A11" s="117">
         <v>7</v>
       </c>
-      <c r="B11" s="189"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="181"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="139"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -35543,19 +35521,19 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159">
+      <c r="A12" s="117">
         <v>8</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="181"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="139"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -35573,19 +35551,19 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="159">
+      <c r="A13" s="117">
         <v>9</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="181"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="139"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -35603,19 +35581,19 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="159">
+      <c r="A14" s="117">
         <v>10</v>
       </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="181"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="139"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -35633,26 +35611,26 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="154"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="157">
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="115">
         <f>SUM(E5:E14)</f>
         <v>119</v>
       </c>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="157">
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="115">
         <f t="shared" ref="I15:J15" si="0">SUM(I5:I14)</f>
-        <v>163</v>
-      </c>
-      <c r="J15" s="158">
+        <v>126</v>
+      </c>
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K15" s="155"/>
+        <v>-4</v>
+      </c>
+      <c r="K15" s="113"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -42197,7 +42175,7 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:D5 A10:D14 A6:A9">
+  <conditionalFormatting sqref="A5:D5 A6:A9 A10:D14">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
@@ -42260,22 +42238,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="143" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
+      <c r="A1" s="184" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
@@ -42290,22 +42268,22 @@
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="112"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="76"/>
@@ -42320,22 +42298,22 @@
       <c r="Z2" s="76"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="A3" s="186" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
       <c r="O3" s="76"/>
       <c r="P3" s="76"/>
       <c r="Q3" s="76"/>
@@ -42350,22 +42328,22 @@
       <c r="Z3" s="76"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="112"/>
+      <c r="A4" s="187" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="153"/>
       <c r="O4" s="76"/>
       <c r="P4" s="76"/>
       <c r="Q4" s="76"/>
@@ -42380,22 +42358,22 @@
       <c r="Z4" s="76"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="147" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="112"/>
+      <c r="A5" s="188" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="153"/>
       <c r="O5" s="76"/>
       <c r="P5" s="76"/>
       <c r="Q5" s="76"/>
@@ -42438,28 +42416,28 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="153"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="182" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="153"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="141" t="s">
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="182" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="141" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="N7" s="112"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -42475,40 +42453,40 @@
     </row>
     <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="77" t="s">
         <v>85</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -42525,21 +42503,21 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H9" s="79">
         <v>2</v>
@@ -42556,7 +42534,7 @@
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="81" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N9" s="82"/>
       <c r="O9" s="5"/>
@@ -42574,17 +42552,17 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="79"/>
       <c r="E10" s="80"/>
       <c r="F10" s="5"/>
       <c r="G10" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H10" s="79"/>
       <c r="I10" s="79"/>
@@ -42595,7 +42573,7 @@
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N10" s="82"/>
       <c r="O10" s="5"/>
@@ -42618,16 +42596,16 @@
       <c r="D11" s="79"/>
       <c r="E11" s="80"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
+      <c r="G11" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
       <c r="L11" s="5"/>
       <c r="M11" s="81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N11" s="82"/>
       <c r="O11" s="5"/>
@@ -42651,23 +42629,23 @@
       <c r="E12" s="80"/>
       <c r="F12" s="5"/>
       <c r="G12" s="77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I12" s="77" t="s">
         <v>85</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K12" s="78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="81" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N12" s="82"/>
       <c r="O12" s="5"/>
@@ -42691,7 +42669,7 @@
       <c r="E13" s="80"/>
       <c r="F13" s="5"/>
       <c r="G13" s="77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H13" s="79">
         <v>1</v>
@@ -42704,7 +42682,7 @@
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N13" s="82"/>
       <c r="O13" s="5"/>
@@ -42716,7 +42694,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -42730,7 +42708,7 @@
       <c r="E14" s="80"/>
       <c r="F14" s="5"/>
       <c r="G14" s="77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
@@ -42741,7 +42719,7 @@
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N14" s="82"/>
       <c r="O14" s="5"/>
@@ -42765,7 +42743,7 @@
       <c r="E15" s="80"/>
       <c r="F15" s="5"/>
       <c r="G15" s="77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H15" s="79">
         <v>1</v>
@@ -42778,7 +42756,7 @@
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N15" s="82"/>
       <c r="O15" s="5"/>
@@ -42801,19 +42779,19 @@
       <c r="D16" s="79"/>
       <c r="E16" s="80"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="142" t="s">
-        <v>211</v>
-      </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
+      <c r="G16" s="183" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
       <c r="K16" s="83">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N16" s="82"/>
       <c r="O16" s="5"/>
@@ -42843,7 +42821,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N17" s="82"/>
       <c r="O17" s="5"/>
@@ -42873,7 +42851,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N18" s="82"/>
       <c r="O18" s="5"/>
@@ -42903,7 +42881,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N19" s="82"/>
       <c r="O19" s="5"/>
@@ -42933,7 +42911,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N20" s="82"/>
       <c r="O20" s="5"/>
@@ -42963,7 +42941,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N21" s="82"/>
       <c r="O21" s="5"/>
@@ -42993,7 +42971,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N22" s="82"/>
       <c r="O22" s="5"/>
@@ -43023,7 +43001,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N23" s="85">
         <f>SUM(N9:N22)</f>
@@ -43056,7 +43034,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N24" s="83">
         <f>(N23*0.01)+0.65</f>
@@ -43089,7 +43067,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="84" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N25" s="86">
         <f>K16*N24</f>
@@ -43122,7 +43100,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="84" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N26" s="87">
         <v>19</v>
@@ -43154,7 +43132,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="88" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N27" s="89">
         <f>N25*N26</f>
@@ -49601,22 +49579,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -49659,24 +49637,24 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="149" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
+      <c r="E3" s="189" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -49692,7 +49670,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="90" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="91">
         <f>'#Estimativa-APF#'!$N$27</f>
@@ -49702,25 +49680,25 @@
         <v>135</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="150" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="148" t="s">
+      <c r="E4" s="190" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="148" t="s">
+      <c r="G4" s="153"/>
+      <c r="H4" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="148" t="s">
+      <c r="I4" s="153"/>
+      <c r="J4" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="148" t="s">
+      <c r="K4" s="153"/>
+      <c r="L4" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="112"/>
+      <c r="M4" s="153"/>
       <c r="N4" s="92"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -49743,28 +49721,28 @@
         <v>0</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="148" t="s">
+      <c r="E5" s="191"/>
+      <c r="F5" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="148" t="s">
+      <c r="G5" s="153"/>
+      <c r="H5" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="148" t="s">
+      <c r="I5" s="153"/>
+      <c r="J5" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="148" t="s">
+      <c r="K5" s="153"/>
+      <c r="L5" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="112"/>
+      <c r="M5" s="153"/>
       <c r="N5" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -49781,7 +49759,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="93" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="94">
         <f>B4+(B4*B5)</f>
@@ -49791,7 +49769,7 @@
         <v>135</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="131"/>
+      <c r="E6" s="167"/>
       <c r="F6" s="95">
         <f>B6*G6</f>
         <v>8.6450000000000014</v>
@@ -49836,7 +49814,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" s="55">
         <v>1</v>
@@ -49844,7 +49822,7 @@
       <c r="C7" s="54"/>
       <c r="D7" s="1"/>
       <c r="E7" s="96" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F7" s="95">
         <f>F6*G7</f>
@@ -49893,17 +49871,17 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="55">
         <v>40</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F8" s="95">
         <f>F6*G8</f>
@@ -49952,7 +49930,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B9" s="55">
         <v>2</v>
@@ -49962,7 +49940,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F9" s="95">
         <f>F6*G9</f>
@@ -50011,7 +49989,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="98" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B10" s="99">
         <f>(B7*B8)*B9</f>
@@ -50022,7 +50000,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F10" s="95">
         <f>F6*G10</f>
@@ -50071,7 +50049,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" s="100">
         <f>B6/B10*2</f>
@@ -50082,7 +50060,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F11" s="95">
         <f>F6*G11</f>
@@ -50131,7 +50109,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="100">
         <f>B11/4</f>
@@ -50142,7 +50120,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="101" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F12" s="102">
         <f t="shared" ref="F12:M12" si="1">SUM(F7:F11)</f>
@@ -50192,18 +50170,18 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" s="104">
         <f>B11/B9</f>
         <v>2.1612499999999999</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F13" s="95">
         <f>F6*G13</f>
@@ -50256,7 +50234,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F14" s="95">
         <f>F6*G14</f>
@@ -50309,7 +50287,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="101" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F15" s="102">
         <f t="shared" ref="F15:M15" si="3">SUM(F13:F14)</f>
@@ -50358,14 +50336,14 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="189" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="1"/>
       <c r="E16" s="64" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F16" s="105">
         <f t="shared" ref="F16:M16" si="4">F12+F15</f>
@@ -50548,7 +50526,7 @@
     </row>
     <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B21" s="109">
         <f>B18+B20</f>
@@ -50646,7 +50624,7 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" s="109">
         <f>B21+B23</f>
@@ -57055,6 +57033,9 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:N3"/>
@@ -57065,9 +57046,6 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="1.181102362204725" bottom="1.181102362204725" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
